--- a/4_data_wrangling/datasets/fake.xlsx
+++ b/4_data_wrangling/datasets/fake.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stiv/GitHub/IntroDataScience/4_data_wrangling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC68EB2-33EE-D243-A19A-65E7A8ED7762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8E298-8982-0D40-9A08-9BA31B9B8756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A3D0E8AB-9171-2E4A-B27F-DCE6D7B6EB30}"/>
+    <workbookView xWindow="11580" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A3D0E8AB-9171-2E4A-B27F-DCE6D7B6EB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7160E9AE-4DC0-DB43-B335-7FA07977E293}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
